--- a/CrowdfundingBook (version 2).xlsb.xlsx
+++ b/CrowdfundingBook (version 2).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\Boot Camp\01_Excel\excel-challenge\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCC81ED-259F-4504-B8D6-01E851BF1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB4ED4C-843E-481A-A31A-DA105DFA051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="22965" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="24915" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -6667,7 +6667,63 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7009,7 +7065,7 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -55072,17 +55128,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="live">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="live">
       <formula>NOT(ISERROR(SEARCH("live",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="canceled">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="canceled">
       <formula>NOT(ISERROR(SEARCH("canceled",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="successful">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="successful">
       <formula>NOT(ISERROR(SEARCH("successful",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
